--- a/Project supporting Artifacts/Feature requirements/DataPolish_Features.xlsx
+++ b/Project supporting Artifacts/Feature requirements/DataPolish_Features.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanmccrossan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanmccrossan/group_project/TUD-Group-Project/Project supporting Artifacts/Feature requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{526DE22A-B98C-A94D-A31A-098D3B3385B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9537FBB-291C-6E4A-8ABC-45CA4718A07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{6E789A33-B115-BE41-929D-FD6EA5DE1201}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20500" activeTab="1" xr2:uid="{6E789A33-B115-BE41-929D-FD6EA5DE1201}"/>
   </bookViews>
   <sheets>
     <sheet name="High level features" sheetId="2" r:id="rId1"/>
-    <sheet name="Sub level features" sheetId="1" r:id="rId2"/>
+    <sheet name="Timeline" sheetId="3" r:id="rId2"/>
+    <sheet name="Sub level features" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sub level features'!$B$3:$H$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sub level features'!$B$3:$H$3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="252">
   <si>
     <t>General Summary</t>
   </si>
@@ -554,13 +555,244 @@
   </si>
   <si>
     <t>DATAPOLISH SUB-FEATURES &amp; IMPLEMENTATION REQUIRED</t>
+  </si>
+  <si>
+    <t>Week No</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Features to be included</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>25th - 29th Sep</t>
+  </si>
+  <si>
+    <t>2nd - 6th Oct</t>
+  </si>
+  <si>
+    <t>9th-13th Oct</t>
+  </si>
+  <si>
+    <t>23rd - 27th Oct</t>
+  </si>
+  <si>
+    <t>16th - 20th Oct</t>
+  </si>
+  <si>
+    <t>30th - 3rd Nov</t>
+  </si>
+  <si>
+    <t>6th - 10th Nov</t>
+  </si>
+  <si>
+    <t>13th - 17th Nov</t>
+  </si>
+  <si>
+    <t>20th - 24th Nov</t>
+  </si>
+  <si>
+    <t>27th - 1st Dec</t>
+  </si>
+  <si>
+    <t>4th - 8th Dec</t>
+  </si>
+  <si>
+    <t>11th - 15th Dec</t>
+  </si>
+  <si>
+    <t>18th - 22nd Dec</t>
+  </si>
+  <si>
+    <t>Data Import</t>
+  </si>
+  <si>
+    <t>Data Quality checks and export of data</t>
+  </si>
+  <si>
+    <t>Data cleaning</t>
+  </si>
+  <si>
+    <t>Data Profiling images</t>
+  </si>
+  <si>
+    <t>UI imporvements and stability</t>
+  </si>
+  <si>
+    <t>Data Preview and Data Import V2</t>
+  </si>
+  <si>
+    <t>Data profile dashboard and data cleaning column level</t>
+  </si>
+  <si>
+    <t>Create new columns, Dimension reduction</t>
+  </si>
+  <si>
+    <t>Statistical analysis data profile visuals and annotation</t>
+  </si>
+  <si>
+    <t>Testing  and evaluation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final report writing and presentation </t>
+  </si>
+  <si>
+    <t>Start of work and research</t>
+  </si>
+  <si>
+    <t>Data quality check module created, not all functions made it to final</t>
+  </si>
+  <si>
+    <t>Data cleaning module created, only dataset wide cleaning uptaken</t>
+  </si>
+  <si>
+    <t>D3 dashboard scrapped for this release, only static pyplots</t>
+  </si>
+  <si>
+    <t>Worked on stability</t>
+  </si>
+  <si>
+    <t>Data preview to be finished</t>
+  </si>
+  <si>
+    <t>D3 dashboard and column level cleaning</t>
+  </si>
+  <si>
+    <t>Not finalised but more complex features to be released</t>
+  </si>
+  <si>
+    <t>More complex charts in data profiling</t>
+  </si>
+  <si>
+    <t>Allow users to upload multiple files</t>
+  </si>
+  <si>
+    <t>Small improvements or possible new functionality</t>
+  </si>
+  <si>
+    <t>Stop all functionality</t>
+  </si>
+  <si>
+    <t>Product stable and general release.</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>MVP</t>
+  </si>
+  <si>
+    <t>Data import</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Days taken</t>
+  </si>
+  <si>
+    <t>Intergration</t>
+  </si>
+  <si>
+    <t>Backend</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>ASD</t>
+  </si>
+  <si>
+    <t>ASD/DS</t>
+  </si>
+  <si>
+    <t>Data export</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>DQ checks</t>
+  </si>
+  <si>
+    <t>Data clean</t>
+  </si>
+  <si>
+    <t>Data profiling</t>
+  </si>
+  <si>
+    <t>Python integration</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta </t>
+  </si>
+  <si>
+    <t>Data import v2</t>
+  </si>
+  <si>
+    <t>Data preview</t>
+  </si>
+  <si>
+    <t>D3 profile dashboard</t>
+  </si>
+  <si>
+    <t>Column cleaning</t>
+  </si>
+  <si>
+    <t>Col clean UI</t>
+  </si>
+  <si>
+    <t>D3 dash Intergration</t>
+  </si>
+  <si>
+    <t>Test and user feedback</t>
+  </si>
+  <si>
+    <t>Week start</t>
+  </si>
+  <si>
+    <t>Week end</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Advanced D3</t>
+  </si>
+  <si>
+    <t>Advanced col clean</t>
+  </si>
+  <si>
+    <t>Evaluation</t>
+  </si>
+  <si>
+    <t>User feedback</t>
+  </si>
+  <si>
+    <t>Gen</t>
+  </si>
+  <si>
+    <t>General release</t>
+  </si>
+  <si>
+    <t>Finalise report</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -592,8 +824,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -606,8 +852,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -902,12 +1166,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -917,9 +1190,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -976,14 +1246,36 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="4" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1301,7 +1593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6ABF70-670A-774A-B35D-94542E2FFA31}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1316,324 +1608,324 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="136" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="136" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" s="36" t="s">
+      <c r="D7" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="35" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="36" t="s">
+      <c r="D8" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="35" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" s="36" t="s">
+      <c r="D9" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="35" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="F10" s="36" t="s">
+      <c r="D10" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="35" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11" s="36" t="s">
+      <c r="D11" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="35" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="36" t="s">
+      <c r="D12" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="35" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="36" t="s">
+      <c r="D13" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="35" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="F14" s="36" t="s">
+      <c r="C14" s="36"/>
+      <c r="D14" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="35" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="36" t="s">
+      <c r="C15" s="36"/>
+      <c r="D15" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="35" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="36" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="35" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="36" t="s">
+      <c r="C17" s="36"/>
+      <c r="D17" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="35" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1656,6 +1948,780 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69608D94-6ACA-2D42-83ED-A3F7001C104A}">
+  <dimension ref="A2:L27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="12" max="12" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="L2" s="48" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="44">
+        <v>2</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="51">
+        <v>45194</v>
+      </c>
+      <c r="H3" s="51">
+        <v>45200</v>
+      </c>
+      <c r="I3" s="50">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>218</v>
+      </c>
+      <c r="K3" t="s">
+        <v>225</v>
+      </c>
+      <c r="L3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+      <c r="A4" s="44">
+        <v>3</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="51">
+        <v>45194</v>
+      </c>
+      <c r="H4" s="51">
+        <v>45207</v>
+      </c>
+      <c r="I4" s="50">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>218</v>
+      </c>
+      <c r="K4" t="s">
+        <v>224</v>
+      </c>
+      <c r="L4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+      <c r="A5" s="44">
+        <v>4</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="51">
+        <v>45194</v>
+      </c>
+      <c r="H5" s="51">
+        <v>45228</v>
+      </c>
+      <c r="I5">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>218</v>
+      </c>
+      <c r="K5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+      <c r="A6" s="44">
+        <v>5</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="51">
+        <v>45194</v>
+      </c>
+      <c r="H6" s="51">
+        <v>45228</v>
+      </c>
+      <c r="I6">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>218</v>
+      </c>
+      <c r="K6" t="s">
+        <v>225</v>
+      </c>
+      <c r="L6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="44">
+        <v>6</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="51">
+        <v>45194</v>
+      </c>
+      <c r="H7" s="51">
+        <v>45228</v>
+      </c>
+      <c r="I7">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+      <c r="A8" s="42">
+        <v>7</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" s="52">
+        <v>45201</v>
+      </c>
+      <c r="H8" s="51">
+        <v>45207</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>218</v>
+      </c>
+      <c r="K8" t="s">
+        <v>224</v>
+      </c>
+      <c r="L8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+      <c r="A9" s="42">
+        <v>8</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" s="52">
+        <v>45201</v>
+      </c>
+      <c r="H9" s="51">
+        <v>45207</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>218</v>
+      </c>
+      <c r="K9" t="s">
+        <v>224</v>
+      </c>
+      <c r="L9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+      <c r="A10" s="42">
+        <v>9</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10" s="52">
+        <v>45208</v>
+      </c>
+      <c r="H10" s="51">
+        <v>45212</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>218</v>
+      </c>
+      <c r="K10" t="s">
+        <v>225</v>
+      </c>
+      <c r="L10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+      <c r="A11" s="42">
+        <v>10</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11" s="52">
+        <v>45208</v>
+      </c>
+      <c r="H11" s="51">
+        <v>45221</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>218</v>
+      </c>
+      <c r="K11" t="s">
+        <v>224</v>
+      </c>
+      <c r="L11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="42">
+        <v>11</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12" s="52">
+        <v>45215</v>
+      </c>
+      <c r="H12" s="51">
+        <v>45221</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>218</v>
+      </c>
+      <c r="K12" t="s">
+        <v>224</v>
+      </c>
+      <c r="L12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+      <c r="A13" s="46">
+        <v>12</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13" s="52">
+        <v>45222</v>
+      </c>
+      <c r="H13" s="51">
+        <v>45228</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>218</v>
+      </c>
+      <c r="K13" t="s">
+        <v>224</v>
+      </c>
+      <c r="L13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="46">
+        <v>13</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14" s="53">
+        <v>45229</v>
+      </c>
+      <c r="H14" s="54">
+        <v>45235</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>234</v>
+      </c>
+      <c r="K14" t="s">
+        <v>225</v>
+      </c>
+      <c r="L14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="27" x14ac:dyDescent="0.2">
+      <c r="A15" s="46">
+        <v>14</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15" s="53">
+        <v>45229</v>
+      </c>
+      <c r="H15" s="54">
+        <v>45235</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15" t="s">
+        <v>234</v>
+      </c>
+      <c r="K15" t="s">
+        <v>225</v>
+      </c>
+      <c r="L15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16" s="53">
+        <v>45229</v>
+      </c>
+      <c r="H16" s="54">
+        <v>45242</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
+        <v>234</v>
+      </c>
+      <c r="K16" t="s">
+        <v>224</v>
+      </c>
+      <c r="L16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17" s="53">
+        <v>45229</v>
+      </c>
+      <c r="H17" s="54">
+        <v>45242</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17" t="s">
+        <v>234</v>
+      </c>
+      <c r="K17" t="s">
+        <v>224</v>
+      </c>
+      <c r="L17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18" s="53">
+        <v>45229</v>
+      </c>
+      <c r="H18" s="54">
+        <v>45242</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18" t="s">
+        <v>234</v>
+      </c>
+      <c r="K18" t="s">
+        <v>225</v>
+      </c>
+      <c r="L18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19" s="55">
+        <v>45236</v>
+      </c>
+      <c r="H19" s="54">
+        <v>45242</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>234</v>
+      </c>
+      <c r="K19" t="s">
+        <v>225</v>
+      </c>
+      <c r="L19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20" s="53">
+        <v>45243</v>
+      </c>
+      <c r="H20" s="54">
+        <v>45249</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20" t="s">
+        <v>234</v>
+      </c>
+      <c r="K20" t="s">
+        <v>226</v>
+      </c>
+      <c r="L20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21" s="53">
+        <v>45243</v>
+      </c>
+      <c r="H21" s="54">
+        <v>45256</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21" t="s">
+        <v>244</v>
+      </c>
+      <c r="K21" t="s">
+        <v>224</v>
+      </c>
+      <c r="L21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>9</v>
+      </c>
+      <c r="G22" s="53">
+        <v>45243</v>
+      </c>
+      <c r="H22" s="54">
+        <v>45256</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22" t="s">
+        <v>244</v>
+      </c>
+      <c r="K22" t="s">
+        <v>224</v>
+      </c>
+      <c r="L22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="G23" s="56">
+        <v>45257</v>
+      </c>
+      <c r="H23" s="56">
+        <v>45277</v>
+      </c>
+      <c r="I23">
+        <v>15</v>
+      </c>
+      <c r="J23" t="s">
+        <v>244</v>
+      </c>
+      <c r="K23" t="s">
+        <v>226</v>
+      </c>
+      <c r="L23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="G24" s="56">
+        <v>45257</v>
+      </c>
+      <c r="H24" s="56">
+        <v>45277</v>
+      </c>
+      <c r="I24">
+        <v>15</v>
+      </c>
+      <c r="J24" t="s">
+        <v>244</v>
+      </c>
+      <c r="K24" t="s">
+        <v>226</v>
+      </c>
+      <c r="L24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="G25" s="56">
+        <v>45257</v>
+      </c>
+      <c r="H25" s="56">
+        <v>45277</v>
+      </c>
+      <c r="I25">
+        <v>15</v>
+      </c>
+      <c r="J25" t="s">
+        <v>244</v>
+      </c>
+      <c r="K25" t="s">
+        <v>226</v>
+      </c>
+      <c r="L25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="G26" s="56">
+        <v>45278</v>
+      </c>
+      <c r="H26" s="56">
+        <v>45284</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26" t="s">
+        <v>249</v>
+      </c>
+      <c r="K26" t="s">
+        <v>226</v>
+      </c>
+      <c r="L26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="G27" s="56">
+        <v>45278</v>
+      </c>
+      <c r="H27" s="56">
+        <v>45284</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27" t="s">
+        <v>249</v>
+      </c>
+      <c r="K27" t="s">
+        <v>226</v>
+      </c>
+      <c r="L27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B12DF85-055B-7B43-90A4-588AD8B6740D}">
   <dimension ref="B2:H62"/>
   <sheetViews>
@@ -1674,21 +2740,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="2:8" ht="35" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1697,10 +2763,10 @@
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>29</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -1711,22 +2777,22 @@
       <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1734,22 +2800,22 @@
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1757,22 +2823,22 @@
       <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="14" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1780,22 +2846,22 @@
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1803,513 +2869,513 @@
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="14" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="14" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="14" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="14" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="14" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="14" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="14" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>44</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="G17" s="40" t="s">
+      <c r="G17" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="14" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>46</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="14" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>49</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="G19" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="14" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>51</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="14" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>55</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="G21" s="41" t="s">
+      <c r="G21" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="14" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>57</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="G22" s="41" t="s">
+      <c r="G22" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="14" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>60</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="40" t="s">
+      <c r="F23" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="G23" s="41" t="s">
+      <c r="G23" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="14" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>61</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="40" t="s">
+      <c r="F24" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="G24" s="41" t="s">
+      <c r="G24" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="14" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>63</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="40" t="s">
+      <c r="F25" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="G25" s="41" t="s">
+      <c r="G25" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="14" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>65</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="14" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="19" t="s">
         <v>66</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="40" t="s">
+      <c r="F27" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="G27" s="41" t="s">
+      <c r="G27" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="14" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>69</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="G28" s="41" t="s">
+      <c r="G28" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="14" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="40" t="s">
+      <c r="F29" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="G29" s="41" t="s">
+      <c r="G29" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="14" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>73</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -2318,289 +3384,289 @@
       <c r="E30" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="40" t="s">
+      <c r="F30" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="G30" s="41" t="s">
+      <c r="G30" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="14" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="12" t="s">
         <v>76</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="40" t="s">
+      <c r="F31" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="G31" s="41" t="s">
+      <c r="G31" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="14" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="12" t="s">
         <v>166</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="40" t="s">
+      <c r="F32" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="G32" s="41" t="s">
+      <c r="G32" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="14" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="12" t="s">
         <v>88</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H33" s="36" t="s">
+      <c r="F33" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H33" s="35" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="12" t="s">
         <v>91</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G34" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H34" s="36" t="s">
+      <c r="F34" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H34" s="35" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="12" t="s">
         <v>93</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H35" s="36" t="s">
+      <c r="F35" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H35" s="35" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="12" t="s">
         <v>95</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H36" s="36" t="s">
+      <c r="F36" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H36" s="35" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="12" t="s">
         <v>97</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F37" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H37" s="36" t="s">
+      <c r="F37" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H37" s="35" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="12" t="s">
         <v>100</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F38" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H38" s="36" t="s">
+      <c r="F38" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H38" s="35" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="12" t="s">
         <v>102</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F39" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G39" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H39" s="36" t="s">
+      <c r="F39" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H39" s="35" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="12" t="s">
         <v>105</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G40" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H40" s="36" t="s">
+      <c r="F40" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H40" s="35" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="12" t="s">
         <v>107</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G41" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H41" s="36" t="s">
+      <c r="F41" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H41" s="35" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="12" t="s">
         <v>109</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F42" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H42" s="36" t="s">
+      <c r="F42" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H42" s="35" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2608,7 +3674,7 @@
       <c r="B43" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>78</v>
       </c>
       <c r="D43" s="5" t="s">
@@ -2617,13 +3683,13 @@
       <c r="E43" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F43" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G43" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H43" s="36" t="s">
+      <c r="F43" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H43" s="35" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2631,22 +3697,22 @@
       <c r="B44" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="12" t="s">
         <v>83</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F44" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G44" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H44" s="36" t="s">
+      <c r="F44" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H44" s="35" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2654,22 +3720,22 @@
       <c r="B45" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="12" t="s">
         <v>85</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F45" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G45" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H45" s="36" t="s">
+      <c r="F45" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H45" s="35" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2677,22 +3743,22 @@
       <c r="B46" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="12" t="s">
         <v>113</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H46" s="15" t="s">
+      <c r="F46" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H46" s="14" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2700,22 +3766,22 @@
       <c r="B47" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="12" t="s">
         <v>115</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F47" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G47" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H47" s="15" t="s">
+      <c r="F47" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H47" s="14" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2723,22 +3789,22 @@
       <c r="B48" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="12" t="s">
         <v>117</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G48" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H48" s="15" t="s">
+      <c r="F48" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H48" s="14" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2746,7 +3812,7 @@
       <c r="B49" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="10" t="s">
         <v>118</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -2755,13 +3821,13 @@
       <c r="E49" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G49" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H49" s="15" t="s">
+      <c r="F49" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H49" s="14" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2769,137 +3835,137 @@
       <c r="B50" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F50" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G50" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H50" s="15" t="s">
+      <c r="F50" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H50" s="14" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="19" t="s">
         <v>129</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F51" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G51" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H51" s="15" t="s">
+      <c r="F51" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H51" s="14" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D52" s="19" t="s">
         <v>132</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F52" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H52" s="15" t="s">
+      <c r="F52" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H52" s="14" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="D53" s="19" t="s">
         <v>135</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F53" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G53" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H53" s="15" t="s">
+      <c r="F53" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H53" s="14" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="D54" s="19" t="s">
         <v>137</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F54" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G54" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H54" s="15" t="s">
+      <c r="F54" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H54" s="14" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B55" s="27" t="s">
+      <c r="B55" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C55" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D55" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="E55" s="24" t="s">
+      <c r="E55" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="F55" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="G55" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="H55" s="26" t="s">
+      <c r="F55" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G55" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="H55" s="25" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2907,87 +3973,87 @@
       <c r="B56" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="D56" s="20" t="s">
+      <c r="D56" s="19" t="s">
         <v>143</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F56" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G56" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H56" s="15" t="s">
+      <c r="F56" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H56" s="14" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D57" s="23" t="s">
+      <c r="D57" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="E57" s="24" t="s">
+      <c r="E57" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="G57" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="H57" s="26" t="s">
+      <c r="F57" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="H57" s="25" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E58" s="5"/>
-      <c r="F58" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G58" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H58" s="15" t="s">
+      <c r="F58" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H58" s="14" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D59" s="19" t="s">
         <v>152</v>
       </c>
       <c r="E59" s="5"/>
-      <c r="F59" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G59" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H59" s="15" t="s">
+      <c r="F59" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H59" s="14" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2995,32 +4061,32 @@
       <c r="B60" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D60" s="20" t="s">
+      <c r="D60" s="19" t="s">
         <v>126</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F60" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G60" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H60" s="15" t="s">
+      <c r="F60" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H60" s="14" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B61" s="6"/>
-      <c r="C61" s="12"/>
+      <c r="C61" s="11"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
       <c r="H61" s="8"/>
     </row>
     <row r="62" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>

--- a/Project supporting Artifacts/Feature requirements/DataPolish_Features.xlsx
+++ b/Project supporting Artifacts/Feature requirements/DataPolish_Features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanmccrossan/group_project/TUD-Group-Project/Project supporting Artifacts/Feature requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9537FBB-291C-6E4A-8ABC-45CA4718A07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92C879E-0070-0D48-83BF-5FDCBD0DDA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20500" activeTab="1" xr2:uid="{6E789A33-B115-BE41-929D-FD6EA5DE1201}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sub level features" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sub level features'!$B$3:$H$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sub level features'!$B$3:$H$60</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1251,9 +1251,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1267,15 +1264,18 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="4" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1608,14 +1608,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
@@ -1952,7 +1952,7 @@
   <dimension ref="A2:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1966,63 +1966,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="47" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="44">
+      <c r="A3" s="43">
         <v>2</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="44" t="s">
         <v>203</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" s="51">
+      <c r="G3" s="50">
         <v>45194</v>
       </c>
-      <c r="H3" s="51">
+      <c r="H3" s="50">
         <v>45200</v>
       </c>
-      <c r="I3" s="50">
+      <c r="I3" s="49">
         <v>5</v>
       </c>
       <c r="J3" t="s">
@@ -2036,28 +2036,28 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.2">
-      <c r="A4" s="44">
+      <c r="A4" s="43">
         <v>3</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="44" t="s">
         <v>204</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="50">
         <v>45194</v>
       </c>
-      <c r="H4" s="51">
+      <c r="H4" s="50">
         <v>45207</v>
       </c>
-      <c r="I4" s="50">
+      <c r="I4" s="49">
         <v>10</v>
       </c>
       <c r="J4" t="s">
@@ -2071,25 +2071,25 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.2">
-      <c r="A5" s="44">
+      <c r="A5" s="43">
         <v>4</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="44" t="s">
         <v>205</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="50">
         <v>45194</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="50">
         <v>45228</v>
       </c>
       <c r="I5">
@@ -2106,25 +2106,25 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.2">
-      <c r="A6" s="44">
+      <c r="A6" s="43">
         <v>5</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="44" t="s">
         <v>206</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6" s="51">
+      <c r="G6" s="50">
         <v>45194</v>
       </c>
-      <c r="H6" s="51">
+      <c r="H6" s="50">
         <v>45228</v>
       </c>
       <c r="I6">
@@ -2141,25 +2141,25 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="44">
+      <c r="A7" s="43">
         <v>6</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="44" t="s">
         <v>207</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="50">
         <v>45194</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="50">
         <v>45228</v>
       </c>
       <c r="I7">
@@ -2176,25 +2176,25 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.2">
-      <c r="A8" s="42">
+      <c r="A8" s="41">
         <v>7</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="42" t="s">
         <v>208</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="51">
         <v>45201</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="50">
         <v>45207</v>
       </c>
       <c r="I8">
@@ -2211,25 +2211,25 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.2">
-      <c r="A9" s="42">
+      <c r="A9" s="41">
         <v>8</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="42" t="s">
         <v>209</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="51">
         <v>45201</v>
       </c>
-      <c r="H9" s="51">
+      <c r="H9" s="50">
         <v>45207</v>
       </c>
       <c r="I9">
@@ -2246,25 +2246,25 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.2">
-      <c r="A10" s="42">
+      <c r="A10" s="41">
         <v>9</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="42" t="s">
         <v>210</v>
       </c>
       <c r="F10">
         <v>4</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="51">
         <v>45208</v>
       </c>
-      <c r="H10" s="51">
+      <c r="H10" s="50">
         <v>45212</v>
       </c>
       <c r="I10">
@@ -2281,25 +2281,25 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.2">
-      <c r="A11" s="42">
+      <c r="A11" s="41">
         <v>10</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="42" t="s">
         <v>211</v>
       </c>
       <c r="F11">
         <v>4</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G11" s="51">
         <v>45208</v>
       </c>
-      <c r="H11" s="51">
+      <c r="H11" s="50">
         <v>45221</v>
       </c>
       <c r="I11">
@@ -2316,25 +2316,25 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="42">
+      <c r="A12" s="41">
         <v>11</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="42" t="s">
         <v>212</v>
       </c>
       <c r="F12">
         <v>5</v>
       </c>
-      <c r="G12" s="52">
+      <c r="G12" s="51">
         <v>45215</v>
       </c>
-      <c r="H12" s="51">
+      <c r="H12" s="50">
         <v>45221</v>
       </c>
       <c r="I12">
@@ -2351,25 +2351,25 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="27" x14ac:dyDescent="0.2">
-      <c r="A13" s="46">
+      <c r="A13" s="45">
         <v>12</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="46" t="s">
         <v>213</v>
       </c>
       <c r="F13">
         <v>6</v>
       </c>
-      <c r="G13" s="52">
+      <c r="G13" s="51">
         <v>45222</v>
       </c>
-      <c r="H13" s="51">
+      <c r="H13" s="50">
         <v>45228</v>
       </c>
       <c r="I13">
@@ -2386,25 +2386,25 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="46">
+      <c r="A14" s="45">
         <v>13</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="46" t="s">
         <v>214</v>
       </c>
       <c r="F14">
         <v>7</v>
       </c>
-      <c r="G14" s="53">
+      <c r="G14" s="52">
         <v>45229</v>
       </c>
-      <c r="H14" s="54">
+      <c r="H14" s="53">
         <v>45235</v>
       </c>
       <c r="I14">
@@ -2421,25 +2421,25 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="27" x14ac:dyDescent="0.2">
-      <c r="A15" s="46">
+      <c r="A15" s="45">
         <v>14</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="46" t="s">
         <v>215</v>
       </c>
       <c r="F15">
         <v>7</v>
       </c>
-      <c r="G15" s="53">
+      <c r="G15" s="52">
         <v>45229</v>
       </c>
-      <c r="H15" s="54">
+      <c r="H15" s="53">
         <v>45235</v>
       </c>
       <c r="I15">
@@ -2459,10 +2459,10 @@
       <c r="F16">
         <v>7</v>
       </c>
-      <c r="G16" s="53">
+      <c r="G16" s="52">
         <v>45229</v>
       </c>
-      <c r="H16" s="54">
+      <c r="H16" s="53">
         <v>45242</v>
       </c>
       <c r="I16">
@@ -2482,10 +2482,10 @@
       <c r="F17">
         <v>7</v>
       </c>
-      <c r="G17" s="53">
+      <c r="G17" s="52">
         <v>45229</v>
       </c>
-      <c r="H17" s="54">
+      <c r="H17" s="53">
         <v>45242</v>
       </c>
       <c r="I17">
@@ -2505,10 +2505,10 @@
       <c r="F18">
         <v>7</v>
       </c>
-      <c r="G18" s="53">
+      <c r="G18" s="52">
         <v>45229</v>
       </c>
-      <c r="H18" s="54">
+      <c r="H18" s="53">
         <v>45242</v>
       </c>
       <c r="I18">
@@ -2528,10 +2528,10 @@
       <c r="F19">
         <v>8</v>
       </c>
-      <c r="G19" s="55">
+      <c r="G19" s="54">
         <v>45236</v>
       </c>
-      <c r="H19" s="54">
+      <c r="H19" s="53">
         <v>45242</v>
       </c>
       <c r="I19">
@@ -2551,10 +2551,10 @@
       <c r="F20">
         <v>9</v>
       </c>
-      <c r="G20" s="53">
+      <c r="G20" s="52">
         <v>45243</v>
       </c>
-      <c r="H20" s="54">
+      <c r="H20" s="53">
         <v>45249</v>
       </c>
       <c r="I20">
@@ -2574,10 +2574,10 @@
       <c r="F21">
         <v>9</v>
       </c>
-      <c r="G21" s="53">
+      <c r="G21" s="52">
         <v>45243</v>
       </c>
-      <c r="H21" s="54">
+      <c r="H21" s="53">
         <v>45256</v>
       </c>
       <c r="I21">
@@ -2597,10 +2597,10 @@
       <c r="F22">
         <v>9</v>
       </c>
-      <c r="G22" s="53">
+      <c r="G22" s="52">
         <v>45243</v>
       </c>
-      <c r="H22" s="54">
+      <c r="H22" s="53">
         <v>45256</v>
       </c>
       <c r="I22">
@@ -2617,10 +2617,10 @@
       </c>
     </row>
     <row r="23" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="G23" s="56">
+      <c r="G23" s="55">
         <v>45257</v>
       </c>
-      <c r="H23" s="56">
+      <c r="H23" s="55">
         <v>45277</v>
       </c>
       <c r="I23">
@@ -2637,10 +2637,10 @@
       </c>
     </row>
     <row r="24" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="G24" s="56">
+      <c r="G24" s="55">
         <v>45257</v>
       </c>
-      <c r="H24" s="56">
+      <c r="H24" s="55">
         <v>45277</v>
       </c>
       <c r="I24">
@@ -2657,10 +2657,10 @@
       </c>
     </row>
     <row r="25" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="G25" s="56">
+      <c r="G25" s="55">
         <v>45257</v>
       </c>
-      <c r="H25" s="56">
+      <c r="H25" s="55">
         <v>45277</v>
       </c>
       <c r="I25">
@@ -2677,10 +2677,10 @@
       </c>
     </row>
     <row r="26" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="G26" s="56">
+      <c r="G26" s="55">
         <v>45278</v>
       </c>
-      <c r="H26" s="56">
+      <c r="H26" s="55">
         <v>45284</v>
       </c>
       <c r="I26">
@@ -2697,10 +2697,10 @@
       </c>
     </row>
     <row r="27" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="G27" s="56">
+      <c r="G27" s="55">
         <v>45278</v>
       </c>
-      <c r="H27" s="56">
+      <c r="H27" s="55">
         <v>45284</v>
       </c>
       <c r="I27">
@@ -2723,10 +2723,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B12DF85-055B-7B43-90A4-588AD8B6740D}">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2740,15 +2741,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
     </row>
     <row r="3" spans="2:8" ht="35" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -2773,7 +2774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
@@ -2796,7 +2797,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
@@ -2819,7 +2820,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
@@ -2842,7 +2843,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
@@ -2865,7 +2866,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
@@ -2888,7 +2889,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9" s="20" t="s">
         <v>20</v>
       </c>
@@ -2911,7 +2912,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
         <v>20</v>
       </c>
@@ -2934,7 +2935,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" s="20" t="s">
         <v>20</v>
       </c>
@@ -2957,7 +2958,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" s="20" t="s">
         <v>20</v>
       </c>
@@ -2980,7 +2981,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" s="20" t="s">
         <v>20</v>
       </c>
@@ -3003,7 +3004,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
         <v>20</v>
       </c>
@@ -3026,7 +3027,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="20" t="s">
         <v>20</v>
       </c>
@@ -3049,7 +3050,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
         <v>20</v>
       </c>
@@ -3072,7 +3073,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" s="20" t="s">
         <v>20</v>
       </c>
@@ -3095,7 +3096,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" s="20" t="s">
         <v>20</v>
       </c>
@@ -3118,7 +3119,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" s="20" t="s">
         <v>20</v>
       </c>
@@ -3141,7 +3142,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" s="20" t="s">
         <v>53</v>
       </c>
@@ -3164,7 +3165,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" s="20" t="s">
         <v>53</v>
       </c>
@@ -3187,7 +3188,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="20" t="s">
         <v>53</v>
       </c>
@@ -3210,7 +3211,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
         <v>53</v>
       </c>
@@ -3233,7 +3234,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
         <v>53</v>
       </c>
@@ -3256,7 +3257,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
         <v>53</v>
       </c>
@@ -3279,7 +3280,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
         <v>53</v>
       </c>
@@ -3302,7 +3303,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="20" t="s">
         <v>53</v>
       </c>
@@ -3325,7 +3326,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="20" t="s">
         <v>53</v>
       </c>
@@ -3348,7 +3349,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="20" t="s">
         <v>53</v>
       </c>
@@ -3371,7 +3372,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="20" t="s">
         <v>53</v>
       </c>
@@ -3394,7 +3395,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="20" t="s">
         <v>53</v>
       </c>
@@ -3417,7 +3418,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="20" t="s">
         <v>53</v>
       </c>
@@ -3601,7 +3602,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="B40" s="20" t="s">
         <v>103</v>
       </c>
@@ -3624,7 +3625,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="20" t="s">
         <v>103</v>
       </c>
@@ -3647,7 +3648,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="B42" s="20" t="s">
         <v>103</v>
       </c>
@@ -3670,7 +3671,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
         <v>77</v>
       </c>
@@ -3693,7 +3694,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
         <v>77</v>
       </c>
@@ -3716,7 +3717,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
         <v>77</v>
       </c>
@@ -3739,7 +3740,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
         <v>111</v>
       </c>
@@ -3762,7 +3763,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
         <v>111</v>
       </c>
@@ -3785,7 +3786,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
         <v>111</v>
       </c>
@@ -3808,7 +3809,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
         <v>111</v>
       </c>
@@ -3831,7 +3832,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
         <v>120</v>
       </c>
@@ -3854,7 +3855,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="B51" s="20" t="s">
         <v>127</v>
       </c>
@@ -3877,7 +3878,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" s="20" t="s">
         <v>127</v>
       </c>
@@ -3900,7 +3901,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="B53" s="20" t="s">
         <v>133</v>
       </c>
@@ -3923,7 +3924,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="B54" s="20" t="s">
         <v>133</v>
       </c>
@@ -3946,7 +3947,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="B55" s="26" t="s">
         <v>133</v>
       </c>
@@ -3969,7 +3970,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
         <v>141</v>
       </c>
@@ -3992,7 +3993,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="B57" s="21" t="s">
         <v>141</v>
       </c>
@@ -4015,7 +4016,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B58" s="20" t="s">
         <v>148</v>
       </c>
@@ -4036,7 +4037,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="B59" s="20" t="s">
         <v>147</v>
       </c>
@@ -4057,7 +4058,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
         <v>124</v>
       </c>
@@ -4091,7 +4092,13 @@
     </row>
     <row r="62" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="B3:H3" xr:uid="{5B12DF85-055B-7B43-90A4-588AD8B6740D}"/>
+  <autoFilter ref="B3:H60" xr:uid="{5B12DF85-055B-7B43-90A4-588AD8B6740D}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Interactive data profile dashboard V2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="B2:H2"/>
   </mergeCells>
